--- a/MemoryMap.xlsx
+++ b/MemoryMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Contains Duplicate</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>Convert String to charArray using s1.toCharArray() ,sort them using Arrays.sort() and compare using Arrays.equals()</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Store nums[i] ,I in hashMap and check for hm.containsKey(target-nums[i])</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,12 +406,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/contains-duplicate/"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.com/problems/two-sum/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/MemoryMap.xlsx
+++ b/MemoryMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Contains Duplicate</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Store nums[i] ,I in hashMap and check for hm.containsKey(target-nums[i])</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Bucket Sort, take Array of type ArrayList&lt;Integer&gt; ,this will have buckets and each index will store the element with that index frequency</t>
   </si>
 </sst>
 </file>
@@ -378,16 +384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="101.85546875" customWidth="1"/>
+    <col min="2" max="2" width="133.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -414,13 +420,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/contains-duplicate/"/>
     <hyperlink ref="A3" r:id="rId2" display="https://leetcode.com/problems/two-sum/"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/MemoryMap.xlsx
+++ b/MemoryMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Contains Duplicate</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Bucket Sort, take Array of type ArrayList&lt;Integer&gt; ,this will have buckets and each index will store the element with that index frequency</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>1&gt;toCharArray 2&gt;Arrays.sort() 3&gt;String s=new String(Sortedarray) 4&gt;map.put(s1,new ArrayList&lt;&gt;())</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,14 +434,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/contains-duplicate/"/>
     <hyperlink ref="A3" r:id="rId2" display="https://leetcode.com/problems/two-sum/"/>
     <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://leetcode.com/problems/group-anagrams/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/MemoryMap.xlsx
+++ b/MemoryMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Contains Duplicate</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>1&gt;toCharArray 2&gt;Arrays.sort() 3&gt;String s=new String(Sortedarray) 4&gt;map.put(s1,new ArrayList&lt;&gt;())</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Product of any element will be product of all elements to the right of it and to the left of it (2 times iterarte over the array one from beginning one from end)</t>
   </si>
 </sst>
 </file>
@@ -390,16 +396,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="133.7109375" customWidth="1"/>
+    <col min="2" max="2" width="140.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -440,6 +446,14 @@
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -448,9 +462,10 @@
     <hyperlink ref="A3" r:id="rId2" display="https://leetcode.com/problems/two-sum/"/>
     <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
     <hyperlink ref="A5" r:id="rId4" display="https://leetcode.com/problems/group-anagrams/"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://leetcode.com/problems/product-of-array-except-self/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
